--- a/data/trans_orig/P04DS2-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/P04DS2-Habitat-trans_orig.xlsx
@@ -8,13 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{FA5D375A-A028-4FC7-805E-CAFB29AAD9CD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{C86F0318-8575-45EF-9C12-74DC9BDB2594}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{7F3C9CFC-28A0-4354-8F64-E5039715147E}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{90CC947C-0369-4596-98BD-C9F3FF9095E3}"/>
   </bookViews>
   <sheets>
     <sheet name="2012" sheetId="2" r:id="rId1"/>
-    <sheet name="2015" sheetId="3" r:id="rId2"/>
+    <sheet name="2016" sheetId="3" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="412" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="412" uniqueCount="77">
   <si>
     <t>Hogares según el tipo de calefacción que tiene la vivienda /respuesta 2 en 2012 (Tasa respuesta: 0,38%)</t>
   </si>
@@ -66,7 +66,7 @@
     <t>lím sup IC</t>
   </si>
   <si>
-    <t>Menos de 2</t>
+    <t>&lt;2.000hab</t>
   </si>
   <si>
     <t>No tiene instalación de calefacción pero sí aparatos calefac</t>
@@ -78,7 +78,7 @@
     <t>Calefacción individual</t>
   </si>
   <si>
-    <t>2/10</t>
+    <t>2-10.000 hab</t>
   </si>
   <si>
     <t>100,0%</t>
@@ -111,7 +111,7 @@
     <t>17,08%</t>
   </si>
   <si>
-    <t>10/50</t>
+    <t>10-50.000 hab</t>
   </si>
   <si>
     <t>22,85%</t>
@@ -126,7 +126,7 @@
     <t>36,25%</t>
   </si>
   <si>
-    <t>mas de 50</t>
+    <t>&gt;50.000hab</t>
   </si>
   <si>
     <t>Capitales</t>
@@ -135,91 +135,97 @@
     <t>40,51%</t>
   </si>
   <si>
+    <t>86,43%</t>
+  </si>
+  <si>
     <t>74,06%</t>
   </si>
   <si>
-    <t>27,58%</t>
+    <t>28,63%</t>
   </si>
   <si>
     <t>61,48%</t>
   </si>
   <si>
-    <t>32,34%</t>
-  </si>
-  <si>
-    <t>86,73%</t>
+    <t>27,68%</t>
+  </si>
+  <si>
+    <t>86,23%</t>
   </si>
   <si>
     <t>59,49%</t>
   </si>
   <si>
+    <t>13,57%</t>
+  </si>
+  <si>
     <t>25,94%</t>
   </si>
   <si>
-    <t>72,42%</t>
+    <t>71,37%</t>
   </si>
   <si>
     <t>38,52%</t>
   </si>
   <si>
-    <t>13,27%</t>
-  </si>
-  <si>
-    <t>67,66%</t>
+    <t>13,77%</t>
+  </si>
+  <si>
+    <t>72,32%</t>
   </si>
   <si>
     <t>68,34%</t>
   </si>
   <si>
-    <t>27,04%</t>
-  </si>
-  <si>
-    <t>90,95%</t>
+    <t>27,27%</t>
+  </si>
+  <si>
+    <t>91,51%</t>
   </si>
   <si>
     <t>88,82%</t>
   </si>
   <si>
-    <t>66,69%</t>
+    <t>65,17%</t>
   </si>
   <si>
     <t>82,12%</t>
   </si>
   <si>
-    <t>65,21%</t>
-  </si>
-  <si>
-    <t>93,25%</t>
+    <t>63,73%</t>
+  </si>
+  <si>
+    <t>93,14%</t>
   </si>
   <si>
     <t>31,66%</t>
   </si>
   <si>
-    <t>9,05%</t>
-  </si>
-  <si>
-    <t>72,96%</t>
+    <t>8,49%</t>
+  </si>
+  <si>
+    <t>72,73%</t>
   </si>
   <si>
     <t>11,18%</t>
   </si>
   <si>
-    <t>33,31%</t>
+    <t>34,83%</t>
   </si>
   <si>
     <t>17,88%</t>
   </si>
   <si>
-    <t>6,75%</t>
-  </si>
-  <si>
-    <t>34,79%</t>
+    <t>6,86%</t>
+  </si>
+  <si>
+    <t>36,27%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
   </si>
   <si>
-    <t>Hogares según el tipo de calefacción que tiene la vivienda /respuesta 2 en 2015 (Tasa respuesta: 0,17%)</t>
+    <t>Hogares según el tipo de calefacción que tiene la vivienda /respuesta 2 en 2016 (Tasa respuesta: 0,17%)</t>
   </si>
   <si>
     <t>43,07%</t>
@@ -243,25 +249,25 @@
     <t>71,93%</t>
   </si>
   <si>
-    <t>29,11%</t>
+    <t>28,21%</t>
   </si>
   <si>
     <t>82,27%</t>
   </si>
   <si>
-    <t>50,34%</t>
+    <t>53,91%</t>
   </si>
   <si>
     <t>28,07%</t>
   </si>
   <si>
-    <t>70,89%</t>
+    <t>71,79%</t>
   </si>
   <si>
     <t>17,73%</t>
   </si>
   <si>
-    <t>49,66%</t>
+    <t>46,09%</t>
   </si>
 </sst>
 </file>
@@ -673,7 +679,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{72B5C60F-6C51-44F5-86BF-63DCBC6E9A6F}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A1322028-24BE-4AF2-82EC-D584181CF566}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1387,7 +1393,7 @@
         <v>19</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>14</v>
+        <v>32</v>
       </c>
       <c r="H16" s="7">
         <v>5</v>
@@ -1396,10 +1402,10 @@
         <v>6061</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="L16" s="7" t="s">
         <v>14</v>
@@ -1411,13 +1417,13 @@
         <v>8050</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -1432,10 +1438,10 @@
         <v>2922</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>19</v>
+        <v>39</v>
       </c>
       <c r="G17" s="7" t="s">
         <v>14</v>
@@ -1447,13 +1453,13 @@
         <v>2123</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="K17" s="7" t="s">
         <v>19</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="M17" s="7">
         <v>5</v>
@@ -1462,13 +1468,13 @@
         <v>5045</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -1536,13 +1542,13 @@
         <v>6307</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="H19" s="7">
         <v>15</v>
@@ -1551,10 +1557,10 @@
         <v>16862</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="L19" s="7" t="s">
         <v>14</v>
@@ -1566,13 +1572,13 @@
         <v>23169</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -1587,13 +1593,13 @@
         <v>2922</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="H20" s="7">
         <v>2</v>
@@ -1602,13 +1608,13 @@
         <v>2123</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="K20" s="7" t="s">
         <v>19</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="M20" s="7">
         <v>5</v>
@@ -1617,13 +1623,13 @@
         <v>5045</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -1679,7 +1685,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
     </row>
   </sheetData>
@@ -1700,7 +1706,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4783DB89-BDB0-48C2-A6D8-2E98E23BEDD2}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{03BBE784-319D-49FD-B588-EFDF33E298D4}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1717,7 +1723,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -2006,7 +2012,7 @@
         <v>14</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="Q7" s="7" t="s">
         <v>16</v>
@@ -2060,7 +2066,7 @@
         <v>20</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -2146,7 +2152,7 @@
         <v>14</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="L10" s="7" t="s">
         <v>16</v>
@@ -2200,7 +2206,7 @@
         <v>20</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="M11" s="7">
         <v>0</v>
@@ -2296,7 +2302,7 @@
         <v>1943</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="K13" s="7" t="s">
         <v>19</v>
@@ -2311,7 +2317,7 @@
         <v>1943</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="P13" s="7" t="s">
         <v>19</v>
@@ -2345,7 +2351,7 @@
         <v>929</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="K14" s="7" t="s">
         <v>19</v>
@@ -2360,7 +2366,7 @@
         <v>929</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="P14" s="7" t="s">
         <v>19</v>
@@ -2462,7 +2468,7 @@
         <v>897</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="P16" s="7" t="s">
         <v>19</v>
@@ -2513,7 +2519,7 @@
         <v>1053</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="P17" s="7" t="s">
         <v>19</v>
@@ -2602,10 +2608,10 @@
         <v>5077</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="L19" s="7" t="s">
         <v>14</v>
@@ -2617,10 +2623,10 @@
         <v>9196</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="Q19" s="7" t="s">
         <v>14</v>
@@ -2653,13 +2659,13 @@
         <v>1982</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="K20" s="7" t="s">
         <v>19</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="M20" s="7">
         <v>2</v>
@@ -2668,13 +2674,13 @@
         <v>1982</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="P20" s="7" t="s">
         <v>19</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -2730,7 +2736,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
     </row>
   </sheetData>
